--- a/Module_1/Class_3/Class_3_Activities/07-Par_FilterHomeSales/Unsolved/home_sales_filtered.xlsx
+++ b/Module_1/Class_3/Class_3_Activities/07-Par_FilterHomeSales/Unsolved/home_sales_filtered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\3\Activities\05-Par_GameSales\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06d23b41cf651141/Desktop/Activities/Module_1/Class_3/Class_3_Activities/07-Par_FilterHomeSales/Unsolved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B412191C-0209-4950-8BB7-F3B8253C2FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{B412191C-0209-4950-8BB7-F3B8253C2FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{044EF067-FBFC-4F5F-9365-FA27ADDEB7FF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home_sales" sheetId="1" r:id="rId1"/>
@@ -2167,6 +2167,3938 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>home_sales!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>date_built</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>home_sales!$C$2:$C$501</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="500"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9652-4FF4-A8C8-4A5762A16CED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>home_sales!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>home_sales!$D$2:$D$501</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="500"/>
+                <c:pt idx="0">
+                  <c:v>516160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>401820</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196658</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>272330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>367699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>411219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>377973</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>298728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>352755</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>387163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>178964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>379245</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252169</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>289220</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>129633</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>218128</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>242706</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>360904</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>432508</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>358981</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>423605</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>362368</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>146421</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>401929</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>161095</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>144510</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>310240</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>306743</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>256807</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>435454</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>217357</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>948631</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>157642</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>343933</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>423266</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>177416</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>217925</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>399092</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>402054</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>329757</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>322092</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>181528</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>235875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>437645</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>151104</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>446577</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>342122</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>179010</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>403316</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>217041</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>246764</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>264372</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>338736</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>193498</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>120740</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>244168</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>201876</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>385557</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>137766</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>301421</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>372014</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>370232</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>150334</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>342303</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>759203</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1465799</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>422119</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>339400</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>276532</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>443322</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>254881</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>127412</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>243860</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>209197</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>283682</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>410985</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>328010</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>221528</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>352449</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>351769</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>252142</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>400946</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>404601</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>407011</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>341254</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>148119</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>221726</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>398560</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>147441</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>341148</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>264668</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>185814</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>249198</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>155395</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>144024</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>287582</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>154242</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>611679</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>250309</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>274488</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>235622</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>326104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>414464</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>178819</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>164975</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>260222</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>337275</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>279214</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>276080</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>270999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>154961</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>247460</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>299094</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>173386</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>438825</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>257605</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>181736</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>213105</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>274515</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>236651</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>390164</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>302420</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>398627</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>121043</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>253473</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>443234</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>182242</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>247870</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>416974</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>386488</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>665258</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>367806</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1427884</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>215801</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>299711</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>248859</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>167718</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>136577</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>363047</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>246181</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>337222</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>411631</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>394918</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>243923</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>169828</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>160012</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>277987</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>209173</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>201693</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>221399</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>372906</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>399022</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>347221</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>289397</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>241799</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>285113</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>195146</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>266068</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>121854</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>239494</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>444317</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>161864</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>250174</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>844794</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>227407</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>174950</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>314541</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>149219</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>351068</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>444516</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>258151</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>371425</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>150556</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175337</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>220526</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>363125</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>138842</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>146194</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>274021</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>297617</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>316997</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>203213</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>187462</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>178106</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>312210</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>440415</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>289595</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>442066</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>187554</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>358507</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>198245</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>286385</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>330677</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>404335</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>146644</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>333494</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>945093</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>316806</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>263096</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1378637</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>311460</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>169349</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>443899</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>170426</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>293523</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>392662</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>205188</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>276868</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>158126</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>188989</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>359126</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>303041</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>151265</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>221602</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>255402</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>221679</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>315641</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>260923</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>211462</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>159214</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>169254</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>422688</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>328886</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>197601</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>383476</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>405127</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>276610</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>145916</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>154053</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>575852</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>404875</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>380625</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>316165</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>174529</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>306092</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>449421</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>261277</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>393344</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>239763</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>417336</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>360560</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>290349</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>266411</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>166343</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>389078</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>410860</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>380434</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>141965</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>354744</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>369763</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>202772</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>346416</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>208959</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>191925</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>394266</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>288003</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>194927</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>313048</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>387645</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>364539</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>378364</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>175613</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>896334</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>193813</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>173366</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>385969</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1376135</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>359966</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>187384</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>256595</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>181789</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>400582</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>160088</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>408647</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>314214</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>258658</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>445692</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>316937</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>192560</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>137840</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>121770</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>406834</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>281003</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>374137</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>333058</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>383099</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>325251</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>379190</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>439226</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>170943</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>432947</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>326618</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>273064</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>152894</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>216790</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>646819</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>266148</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>442497</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>257184</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>182243</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>200948</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>240110</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>273446</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>236575</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>137888</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>142999</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>221159</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>226978</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>315778</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>267646</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>208904</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>190131</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>356910</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>248229</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>162307</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>251142</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>308242</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>257436</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>235323</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>266226</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>347994</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>326590</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>359147</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>219835</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>196996</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>438205</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>139060</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>201361</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>756649</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>231545</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>274377</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>202282</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>360796</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1363806</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>355104</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>336634</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>155584</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>362320</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>255220</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>173916</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>427162</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>426266</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>192544</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>249822</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>266028</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>139947</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>278892</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>421730</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>441264</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>216791</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>231431</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>195914</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>306489</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>289682</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>213903</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>262076</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>328567</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>217017</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>141813</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>185427</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>419801</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>606340</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>386181</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>273254</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>309900</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>278622</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>271180</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>296894</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>399076</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>149189</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>397262</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>404714</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>258179</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>328551</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>185622</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>269681</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>368404</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>313465</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>318328</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>313072</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>375184</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>230202</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>431374</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>335206</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>356453</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>437650</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>289619</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>291928</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>420280</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>367796</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>361633</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>311469</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>220288</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>359716</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>960758</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>294500</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>365119</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>350655</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>218621</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>234237</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>1480759</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>408897</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>382865</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>372367</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>177590</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>289154</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>252031</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>308905</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>260985</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>146204</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>164061</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>408312</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>400490</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>388594</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>360574</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>177997</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>141869</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>395367</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>267325</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>412614</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>441301</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>215454</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>141331</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>414528</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>149489</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>158791</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>393654</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>983363</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>348125</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>259356</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>157395</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>414878</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>248826</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>181088</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>239757</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>446926</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>271860</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>230217</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>219046</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>206826</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>370905</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>197944</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>423368</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>246007</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>281166</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>314730</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>447906</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>243438</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>155585</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>432495</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>357917</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>346070</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>348793</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>209972</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>186497</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>409864</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>271183</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>303653</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>336171</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>373710</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>790613</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>308793</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>430933</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>192355</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>449623</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>162489</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>187852</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>1481786</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>154942</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>448467</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>241266</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>320935</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>377445</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>349318</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>355431</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>186331</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>240968</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>216631</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>358428</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>394651</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>387119</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>448213</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>363774</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>204352</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>183580</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>294893</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>382991</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>367350</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>436038</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>283640</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>352349</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>269578</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>323287</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>582650</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>425775</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>355066</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>421019</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>123075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9652-4FF4-A8C8-4A5762A16CED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1639988672"/>
+        <c:axId val="1223004784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1639988672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1223004784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1223004784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1639988672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033C3E2C-C9E8-BDCC-7791-4A84D4E4ADA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2467,7 +6399,7 @@
   <dimension ref="A1:T501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D1" activeCellId="1" sqref="C1:C1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2524,7 +6456,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="33.75">
+    <row r="2" spans="1:20" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2568,7 +6500,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="33.75">
+    <row r="3" spans="1:20" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -2612,7 +6544,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="33.75">
+    <row r="4" spans="1:20" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -2656,7 +6588,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="33.75">
+    <row r="5" spans="1:20" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2700,7 +6632,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="33.75">
+    <row r="6" spans="1:20" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2744,7 +6676,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="33.75">
+    <row r="7" spans="1:20" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -2788,7 +6720,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="33.75">
+    <row r="8" spans="1:20" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -2832,7 +6764,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="33.75">
+    <row r="9" spans="1:20" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -2876,7 +6808,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" ht="33.75">
+    <row r="10" spans="1:20" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -2920,7 +6852,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" ht="33.75">
+    <row r="11" spans="1:20" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -2964,7 +6896,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="33.75">
+    <row r="12" spans="1:20" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -3008,7 +6940,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="33.75">
+    <row r="13" spans="1:20" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -3052,7 +6984,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="33.75">
+    <row r="14" spans="1:20" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -3096,7 +7028,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="33.75">
+    <row r="15" spans="1:20" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3140,7 +7072,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="33.75">
+    <row r="16" spans="1:20" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3184,7 +7116,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" ht="33.75">
+    <row r="17" spans="1:20" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -3228,7 +7160,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="33.75">
+    <row r="18" spans="1:20" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -3272,7 +7204,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="33.75">
+    <row r="19" spans="1:20" ht="15.75">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -3316,7 +7248,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="33.75">
+    <row r="20" spans="1:20" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3360,7 +7292,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" ht="33.75">
+    <row r="21" spans="1:20" ht="15.75">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -3404,7 +7336,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" ht="33.75">
+    <row r="22" spans="1:20" ht="15.75">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -3448,7 +7380,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="33.75">
+    <row r="23" spans="1:20" ht="15.75">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -3492,7 +7424,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" ht="33.75">
+    <row r="24" spans="1:20" ht="15.75">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -3536,7 +7468,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="33.75">
+    <row r="25" spans="1:20" ht="15.75">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -3580,7 +7512,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" ht="33.75">
+    <row r="26" spans="1:20" ht="15.75">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -3624,7 +7556,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="33.75">
+    <row r="27" spans="1:20" ht="15.75">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -3668,7 +7600,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="33.75">
+    <row r="28" spans="1:20" ht="15.75">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -3712,7 +7644,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" ht="33.75">
+    <row r="29" spans="1:20" ht="15.75">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -3756,7 +7688,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" ht="33.75">
+    <row r="30" spans="1:20" ht="15.75">
       <c r="A30" s="3" t="s">
         <v>39</v>
       </c>
@@ -3800,7 +7732,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" ht="33.75">
+    <row r="31" spans="1:20" ht="15.75">
       <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
@@ -3844,7 +7776,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" ht="33.75">
+    <row r="32" spans="1:20" ht="15.75">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -3888,7 +7820,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" ht="33.75">
+    <row r="33" spans="1:20" ht="15.75">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -3932,7 +7864,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" ht="33.75">
+    <row r="34" spans="1:20" ht="15.75">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
@@ -3976,7 +7908,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" ht="33.75">
+    <row r="35" spans="1:20" ht="15.75">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -4020,7 +7952,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" ht="33.75">
+    <row r="36" spans="1:20" ht="15.75">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -4064,7 +7996,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" ht="33.75">
+    <row r="37" spans="1:20" ht="15.75">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -4108,7 +8040,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" ht="33.75">
+    <row r="38" spans="1:20" ht="15.75">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -4152,7 +8084,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" ht="33.75">
+    <row r="39" spans="1:20" ht="15.75">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
@@ -4196,7 +8128,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" ht="33.75">
+    <row r="40" spans="1:20" ht="15.75">
       <c r="A40" s="5" t="s">
         <v>49</v>
       </c>
@@ -4240,7 +8172,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" ht="33.75">
+    <row r="41" spans="1:20" ht="15.75">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -4284,7 +8216,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" ht="33.75">
+    <row r="42" spans="1:20" ht="15.75">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
@@ -4328,7 +8260,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" ht="33.75">
+    <row r="43" spans="1:20" ht="15.75">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -4372,7 +8304,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" ht="33.75">
+    <row r="44" spans="1:20" ht="15.75">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -4416,7 +8348,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" ht="33.75">
+    <row r="45" spans="1:20" ht="15.75">
       <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
@@ -4460,7 +8392,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" ht="33.75">
+    <row r="46" spans="1:20" ht="15.75">
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
@@ -4504,7 +8436,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" ht="33.75">
+    <row r="47" spans="1:20" ht="15.75">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -4548,7 +8480,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" ht="33.75">
+    <row r="48" spans="1:20" ht="15.75">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
@@ -4592,7 +8524,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" ht="33.75">
+    <row r="49" spans="1:20" ht="15.75">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
@@ -4636,7 +8568,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" ht="33.75">
+    <row r="50" spans="1:20" ht="15.75">
       <c r="A50" s="3" t="s">
         <v>59</v>
       </c>
@@ -4680,7 +8612,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" ht="33.75">
+    <row r="51" spans="1:20" ht="15.75">
       <c r="A51" s="3" t="s">
         <v>60</v>
       </c>
@@ -4724,7 +8656,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" ht="33.75">
+    <row r="52" spans="1:20" ht="15.75">
       <c r="A52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4768,7 +8700,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" ht="33.75">
+    <row r="53" spans="1:20" ht="15.75">
       <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
@@ -4812,7 +8744,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" ht="33.75">
+    <row r="54" spans="1:20" ht="15.75">
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
@@ -4856,7 +8788,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" ht="33.75">
+    <row r="55" spans="1:20" ht="15.75">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
@@ -4900,7 +8832,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" ht="33.75">
+    <row r="56" spans="1:20" ht="15.75">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
@@ -4944,7 +8876,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" ht="33.75">
+    <row r="57" spans="1:20" ht="15.75">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
@@ -4988,7 +8920,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" ht="33.75">
+    <row r="58" spans="1:20" ht="15.75">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
@@ -5032,7 +8964,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" ht="33.75">
+    <row r="59" spans="1:20" ht="15.75">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
@@ -5076,7 +9008,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" ht="33.75">
+    <row r="60" spans="1:20" ht="15.75">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
@@ -5120,7 +9052,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" ht="33.75">
+    <row r="61" spans="1:20" ht="15.75">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
@@ -5164,7 +9096,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" ht="33.75">
+    <row r="62" spans="1:20" ht="15.75">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
@@ -5208,7 +9140,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" ht="33.75">
+    <row r="63" spans="1:20" ht="15.75">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
@@ -5252,7 +9184,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" ht="33.75">
+    <row r="64" spans="1:20" ht="15.75">
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
@@ -5296,7 +9228,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" ht="33.75">
+    <row r="65" spans="1:20" ht="15.75">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
@@ -5340,7 +9272,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" ht="33.75">
+    <row r="66" spans="1:20" ht="15.75">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
@@ -5384,7 +9316,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" ht="33.75">
+    <row r="67" spans="1:20" ht="15.75">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
@@ -5428,7 +9360,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" ht="33.75">
+    <row r="68" spans="1:20" ht="15.75">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
@@ -5472,7 +9404,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" ht="33.75">
+    <row r="69" spans="1:20" ht="15.75">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
@@ -5516,7 +9448,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" ht="33.75">
+    <row r="70" spans="1:20" ht="15.75">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
@@ -5560,7 +9492,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" ht="33.75">
+    <row r="71" spans="1:20" ht="15.75">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
@@ -5604,7 +9536,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" ht="33.75">
+    <row r="72" spans="1:20" ht="15.75">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
@@ -5648,7 +9580,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" ht="33.75">
+    <row r="73" spans="1:20" ht="15.75">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
@@ -5692,7 +9624,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" ht="33.75">
+    <row r="74" spans="1:20" ht="15.75">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
@@ -5736,7 +9668,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" ht="33.75">
+    <row r="75" spans="1:20" ht="15.75">
       <c r="A75" s="3" t="s">
         <v>84</v>
       </c>
@@ -5780,7 +9712,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" ht="33.75">
+    <row r="76" spans="1:20" ht="15.75">
       <c r="A76" s="3" t="s">
         <v>85</v>
       </c>
@@ -5824,7 +9756,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" ht="33.75">
+    <row r="77" spans="1:20" ht="15.75">
       <c r="A77" s="3" t="s">
         <v>86</v>
       </c>
@@ -5868,7 +9800,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" ht="33.75">
+    <row r="78" spans="1:20" ht="15.75">
       <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
@@ -5912,7 +9844,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" ht="33.75">
+    <row r="79" spans="1:20" ht="15.75">
       <c r="A79" s="3" t="s">
         <v>88</v>
       </c>
@@ -5956,7 +9888,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" ht="33.75">
+    <row r="80" spans="1:20" ht="15.75">
       <c r="A80" s="3" t="s">
         <v>89</v>
       </c>
@@ -6000,7 +9932,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" ht="33.75">
+    <row r="81" spans="1:20" ht="15.75">
       <c r="A81" s="3" t="s">
         <v>90</v>
       </c>
@@ -6044,7 +9976,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" ht="33.75">
+    <row r="82" spans="1:20" ht="15.75">
       <c r="A82" s="3" t="s">
         <v>91</v>
       </c>
@@ -6088,7 +10020,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" ht="33.75">
+    <row r="83" spans="1:20" ht="15.75">
       <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
@@ -6132,7 +10064,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" ht="33.75">
+    <row r="84" spans="1:20" ht="15.75">
       <c r="A84" s="3" t="s">
         <v>93</v>
       </c>
@@ -6176,7 +10108,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" ht="33.75">
+    <row r="85" spans="1:20" ht="15.75">
       <c r="A85" s="3" t="s">
         <v>94</v>
       </c>
@@ -6220,7 +10152,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" ht="33.75">
+    <row r="86" spans="1:20" ht="15.75">
       <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
@@ -6264,7 +10196,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" ht="33.75">
+    <row r="87" spans="1:20" ht="15.75">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -6308,7 +10240,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" ht="33.75">
+    <row r="88" spans="1:20" ht="15.75">
       <c r="A88" s="3" t="s">
         <v>97</v>
       </c>
@@ -6352,7 +10284,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" ht="33.75">
+    <row r="89" spans="1:20" ht="15.75">
       <c r="A89" s="3" t="s">
         <v>98</v>
       </c>
@@ -6396,7 +10328,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" ht="33.75">
+    <row r="90" spans="1:20" ht="15.75">
       <c r="A90" s="3" t="s">
         <v>99</v>
       </c>
@@ -6440,7 +10372,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" ht="33.75">
+    <row r="91" spans="1:20" ht="15.75">
       <c r="A91" s="3" t="s">
         <v>100</v>
       </c>
@@ -6484,7 +10416,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" ht="33.75">
+    <row r="92" spans="1:20" ht="15.75">
       <c r="A92" s="3" t="s">
         <v>101</v>
       </c>
@@ -6528,7 +10460,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" ht="33.75">
+    <row r="93" spans="1:20" ht="15.75">
       <c r="A93" s="3" t="s">
         <v>102</v>
       </c>
@@ -6572,7 +10504,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" ht="33.75">
+    <row r="94" spans="1:20" ht="15.75">
       <c r="A94" s="3" t="s">
         <v>103</v>
       </c>
@@ -6616,7 +10548,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" ht="33.75">
+    <row r="95" spans="1:20" ht="15.75">
       <c r="A95" s="3" t="s">
         <v>104</v>
       </c>
@@ -6660,7 +10592,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" ht="33.75">
+    <row r="96" spans="1:20" ht="15.75">
       <c r="A96" s="5" t="s">
         <v>105</v>
       </c>
@@ -6704,7 +10636,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" ht="33.75">
+    <row r="97" spans="1:20" ht="15.75">
       <c r="A97" s="3" t="s">
         <v>106</v>
       </c>
@@ -6748,7 +10680,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" ht="33.75">
+    <row r="98" spans="1:20" ht="15.75">
       <c r="A98" s="3" t="s">
         <v>107</v>
       </c>
@@ -6792,7 +10724,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" ht="33.75">
+    <row r="99" spans="1:20" ht="15.75">
       <c r="A99" s="3" t="s">
         <v>108</v>
       </c>
@@ -6836,7 +10768,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" ht="33.75">
+    <row r="100" spans="1:20" ht="15.75">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -6880,7 +10812,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" ht="33.75">
+    <row r="101" spans="1:20" ht="15.75">
       <c r="A101" s="3" t="s">
         <v>110</v>
       </c>
@@ -6924,7 +10856,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" ht="33.75">
+    <row r="102" spans="1:20" ht="15.75">
       <c r="A102" s="3" t="s">
         <v>111</v>
       </c>
@@ -6968,7 +10900,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" ht="33.75">
+    <row r="103" spans="1:20" ht="15.75">
       <c r="A103" s="3" t="s">
         <v>112</v>
       </c>
@@ -7012,7 +10944,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" ht="33.75">
+    <row r="104" spans="1:20" ht="15.75">
       <c r="A104" s="3" t="s">
         <v>113</v>
       </c>
@@ -7056,7 +10988,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" ht="33.75">
+    <row r="105" spans="1:20" ht="15.75">
       <c r="A105" s="3" t="s">
         <v>114</v>
       </c>
@@ -7100,7 +11032,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" ht="33.75">
+    <row r="106" spans="1:20" ht="15.75">
       <c r="A106" s="3" t="s">
         <v>115</v>
       </c>
@@ -7144,7 +11076,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" ht="33.75">
+    <row r="107" spans="1:20" ht="15.75">
       <c r="A107" s="3" t="s">
         <v>116</v>
       </c>
@@ -7188,7 +11120,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" ht="33.75">
+    <row r="108" spans="1:20" ht="15.75">
       <c r="A108" s="3" t="s">
         <v>117</v>
       </c>
@@ -7232,7 +11164,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" ht="33.75">
+    <row r="109" spans="1:20" ht="15.75">
       <c r="A109" s="3" t="s">
         <v>118</v>
       </c>
@@ -7276,7 +11208,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" ht="33.75">
+    <row r="110" spans="1:20" ht="15.75">
       <c r="A110" s="3" t="s">
         <v>119</v>
       </c>
@@ -7320,7 +11252,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" ht="33.75">
+    <row r="111" spans="1:20" ht="15.75">
       <c r="A111" s="3" t="s">
         <v>120</v>
       </c>
@@ -7364,7 +11296,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" ht="33.75">
+    <row r="112" spans="1:20" ht="15.75">
       <c r="A112" s="3" t="s">
         <v>121</v>
       </c>
@@ -7408,7 +11340,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" ht="33.75">
+    <row r="113" spans="1:20" ht="15.75">
       <c r="A113" s="3" t="s">
         <v>122</v>
       </c>
@@ -7452,7 +11384,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" ht="33.75">
+    <row r="114" spans="1:20" ht="15.75">
       <c r="A114" s="3" t="s">
         <v>123</v>
       </c>
@@ -7496,7 +11428,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" ht="33.75">
+    <row r="115" spans="1:20" ht="15.75">
       <c r="A115" s="3" t="s">
         <v>124</v>
       </c>
@@ -7540,7 +11472,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" ht="33.75">
+    <row r="116" spans="1:20" ht="15.75">
       <c r="A116" s="5" t="s">
         <v>125</v>
       </c>
@@ -7584,7 +11516,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" ht="33.75">
+    <row r="117" spans="1:20" ht="15.75">
       <c r="A117" s="3" t="s">
         <v>126</v>
       </c>
@@ -7628,7 +11560,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" ht="33.75">
+    <row r="118" spans="1:20" ht="15.75">
       <c r="A118" s="3" t="s">
         <v>127</v>
       </c>
@@ -7672,7 +11604,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" ht="33.75">
+    <row r="119" spans="1:20" ht="15.75">
       <c r="A119" s="3" t="s">
         <v>128</v>
       </c>
@@ -7716,7 +11648,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" ht="33.75">
+    <row r="120" spans="1:20" ht="15.75">
       <c r="A120" s="3" t="s">
         <v>129</v>
       </c>
@@ -7760,7 +11692,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" ht="33.75">
+    <row r="121" spans="1:20" ht="15.75">
       <c r="A121" s="3" t="s">
         <v>130</v>
       </c>
@@ -7804,7 +11736,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" ht="33.75">
+    <row r="122" spans="1:20" ht="15.75">
       <c r="A122" s="3" t="s">
         <v>131</v>
       </c>
@@ -7848,7 +11780,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" ht="33.75">
+    <row r="123" spans="1:20" ht="15.75">
       <c r="A123" s="3" t="s">
         <v>132</v>
       </c>
@@ -7892,7 +11824,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" ht="33.75">
+    <row r="124" spans="1:20" ht="15.75">
       <c r="A124" s="3" t="s">
         <v>133</v>
       </c>
@@ -7936,7 +11868,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" ht="33.75">
+    <row r="125" spans="1:20" ht="15.75">
       <c r="A125" s="3" t="s">
         <v>134</v>
       </c>
@@ -7980,7 +11912,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" ht="33.75">
+    <row r="126" spans="1:20" ht="15.75">
       <c r="A126" s="3" t="s">
         <v>135</v>
       </c>
@@ -8024,7 +11956,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" ht="33.75">
+    <row r="127" spans="1:20" ht="15.75">
       <c r="A127" s="3" t="s">
         <v>136</v>
       </c>
@@ -8068,7 +12000,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" ht="33.75">
+    <row r="128" spans="1:20" ht="15.75">
       <c r="A128" s="3" t="s">
         <v>137</v>
       </c>
@@ -8112,7 +12044,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" ht="33.75">
+    <row r="129" spans="1:20" ht="15.75">
       <c r="A129" s="3" t="s">
         <v>138</v>
       </c>
@@ -8156,7 +12088,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" ht="33.75">
+    <row r="130" spans="1:20" ht="15.75">
       <c r="A130" s="3" t="s">
         <v>139</v>
       </c>
@@ -8200,7 +12132,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" ht="33.75">
+    <row r="131" spans="1:20" ht="15.75">
       <c r="A131" s="3" t="s">
         <v>140</v>
       </c>
@@ -8244,7 +12176,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" ht="33.75">
+    <row r="132" spans="1:20" ht="15.75">
       <c r="A132" s="3" t="s">
         <v>141</v>
       </c>
@@ -8288,7 +12220,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" ht="33.75">
+    <row r="133" spans="1:20" ht="15.75">
       <c r="A133" s="3" t="s">
         <v>142</v>
       </c>
@@ -8332,7 +12264,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" ht="33.75">
+    <row r="134" spans="1:20" ht="15.75">
       <c r="A134" s="3" t="s">
         <v>143</v>
       </c>
@@ -8376,7 +12308,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" ht="33.75">
+    <row r="135" spans="1:20" ht="15.75">
       <c r="A135" s="3" t="s">
         <v>144</v>
       </c>
@@ -8420,7 +12352,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" ht="33.75">
+    <row r="136" spans="1:20" ht="15.75">
       <c r="A136" s="3" t="s">
         <v>145</v>
       </c>
@@ -8464,7 +12396,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" ht="33.75">
+    <row r="137" spans="1:20" ht="15.75">
       <c r="A137" s="3" t="s">
         <v>146</v>
       </c>
@@ -8508,7 +12440,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" ht="33.75">
+    <row r="138" spans="1:20" ht="15.75">
       <c r="A138" s="3" t="s">
         <v>147</v>
       </c>
@@ -8552,7 +12484,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" ht="33.75">
+    <row r="139" spans="1:20" ht="15.75">
       <c r="A139" s="3" t="s">
         <v>148</v>
       </c>
@@ -8596,7 +12528,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" ht="33.75">
+    <row r="140" spans="1:20" ht="15.75">
       <c r="A140" s="3" t="s">
         <v>149</v>
       </c>
@@ -8640,7 +12572,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" ht="33.75">
+    <row r="141" spans="1:20" ht="15.75">
       <c r="A141" s="3" t="s">
         <v>150</v>
       </c>
@@ -8684,7 +12616,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" ht="33.75">
+    <row r="142" spans="1:20" ht="15.75">
       <c r="A142" s="3" t="s">
         <v>151</v>
       </c>
@@ -8728,7 +12660,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" ht="33.75">
+    <row r="143" spans="1:20" ht="15.75">
       <c r="A143" s="3" t="s">
         <v>152</v>
       </c>
@@ -8772,7 +12704,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" ht="33.75">
+    <row r="144" spans="1:20" ht="15.75">
       <c r="A144" s="3" t="s">
         <v>153</v>
       </c>
@@ -8816,7 +12748,7 @@
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
     </row>
-    <row r="145" spans="1:20" ht="33.75">
+    <row r="145" spans="1:20" ht="15.75">
       <c r="A145" s="3" t="s">
         <v>154</v>
       </c>
@@ -8860,7 +12792,7 @@
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
     </row>
-    <row r="146" spans="1:20" ht="33.75">
+    <row r="146" spans="1:20" ht="15.75">
       <c r="A146" s="3" t="s">
         <v>155</v>
       </c>
@@ -8904,7 +12836,7 @@
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
     </row>
-    <row r="147" spans="1:20" ht="33.75">
+    <row r="147" spans="1:20" ht="15.75">
       <c r="A147" s="3" t="s">
         <v>156</v>
       </c>
@@ -8948,7 +12880,7 @@
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
     </row>
-    <row r="148" spans="1:20" ht="33.75">
+    <row r="148" spans="1:20" ht="15.75">
       <c r="A148" s="3" t="s">
         <v>157</v>
       </c>
@@ -8992,7 +12924,7 @@
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
     </row>
-    <row r="149" spans="1:20" ht="33.75">
+    <row r="149" spans="1:20" ht="15.75">
       <c r="A149" s="3" t="s">
         <v>158</v>
       </c>
@@ -9036,7 +12968,7 @@
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
     </row>
-    <row r="150" spans="1:20" ht="33.75">
+    <row r="150" spans="1:20" ht="15.75">
       <c r="A150" s="3" t="s">
         <v>159</v>
       </c>
@@ -9080,7 +13012,7 @@
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
     </row>
-    <row r="151" spans="1:20" ht="33.75">
+    <row r="151" spans="1:20">
       <c r="A151" s="3" t="s">
         <v>160</v>
       </c>
@@ -9115,7 +13047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="33.75">
+    <row r="152" spans="1:20">
       <c r="A152" s="3" t="s">
         <v>161</v>
       </c>
@@ -9150,7 +13082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="33.75">
+    <row r="153" spans="1:20">
       <c r="A153" s="3" t="s">
         <v>162</v>
       </c>
@@ -9185,7 +13117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="33.75">
+    <row r="154" spans="1:20">
       <c r="A154" s="3" t="s">
         <v>163</v>
       </c>
@@ -9220,7 +13152,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="33.75">
+    <row r="155" spans="1:20">
       <c r="A155" s="3" t="s">
         <v>164</v>
       </c>
@@ -9255,7 +13187,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="33.75">
+    <row r="156" spans="1:20">
       <c r="A156" s="3" t="s">
         <v>165</v>
       </c>
@@ -9290,7 +13222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="33.75">
+    <row r="157" spans="1:20">
       <c r="A157" s="3" t="s">
         <v>166</v>
       </c>
@@ -9325,7 +13257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="33.75">
+    <row r="158" spans="1:20">
       <c r="A158" s="3" t="s">
         <v>167</v>
       </c>
@@ -9360,7 +13292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="33.75">
+    <row r="159" spans="1:20">
       <c r="A159" s="5" t="s">
         <v>168</v>
       </c>
@@ -9395,7 +13327,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="33.75">
+    <row r="160" spans="1:20">
       <c r="A160" s="3" t="s">
         <v>169</v>
       </c>
@@ -9430,7 +13362,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="33.75">
+    <row r="161" spans="1:11">
       <c r="A161" s="3" t="s">
         <v>170</v>
       </c>
@@ -9465,7 +13397,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="33.75">
+    <row r="162" spans="1:11">
       <c r="A162" s="3" t="s">
         <v>171</v>
       </c>
@@ -9500,7 +13432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="33.75">
+    <row r="163" spans="1:11">
       <c r="A163" s="3" t="s">
         <v>172</v>
       </c>
@@ -9535,7 +13467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="33.75">
+    <row r="164" spans="1:11">
       <c r="A164" s="3" t="s">
         <v>173</v>
       </c>
@@ -9570,7 +13502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="33.75">
+    <row r="165" spans="1:11">
       <c r="A165" s="3" t="s">
         <v>174</v>
       </c>
@@ -9605,7 +13537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="33.75">
+    <row r="166" spans="1:11">
       <c r="A166" s="3" t="s">
         <v>175</v>
       </c>
@@ -9640,7 +13572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="33.75">
+    <row r="167" spans="1:11">
       <c r="A167" s="3" t="s">
         <v>176</v>
       </c>
@@ -9675,7 +13607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="33.75">
+    <row r="168" spans="1:11">
       <c r="A168" s="3" t="s">
         <v>177</v>
       </c>
@@ -9710,7 +13642,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="33.75">
+    <row r="169" spans="1:11">
       <c r="A169" s="3" t="s">
         <v>178</v>
       </c>
@@ -9745,7 +13677,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="33.75">
+    <row r="170" spans="1:11">
       <c r="A170" s="3" t="s">
         <v>179</v>
       </c>
@@ -9780,7 +13712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="33.75">
+    <row r="171" spans="1:11">
       <c r="A171" s="3" t="s">
         <v>180</v>
       </c>
@@ -9815,7 +13747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="33.75">
+    <row r="172" spans="1:11">
       <c r="A172" s="3" t="s">
         <v>181</v>
       </c>
@@ -9850,7 +13782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="33.75">
+    <row r="173" spans="1:11">
       <c r="A173" s="3" t="s">
         <v>182</v>
       </c>
@@ -9885,7 +13817,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="33.75">
+    <row r="174" spans="1:11">
       <c r="A174" s="3" t="s">
         <v>183</v>
       </c>
@@ -9920,7 +13852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="33.75">
+    <row r="175" spans="1:11">
       <c r="A175" s="3" t="s">
         <v>184</v>
       </c>
@@ -9955,7 +13887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="33.75">
+    <row r="176" spans="1:11">
       <c r="A176" s="3" t="s">
         <v>185</v>
       </c>
@@ -9990,7 +13922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="33.75">
+    <row r="177" spans="1:11">
       <c r="A177" s="3" t="s">
         <v>186</v>
       </c>
@@ -10025,7 +13957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="33.75">
+    <row r="178" spans="1:11">
       <c r="A178" s="3" t="s">
         <v>187</v>
       </c>
@@ -10060,7 +13992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="33.75">
+    <row r="179" spans="1:11">
       <c r="A179" s="3" t="s">
         <v>188</v>
       </c>
@@ -10095,7 +14027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="33.75">
+    <row r="180" spans="1:11">
       <c r="A180" s="3" t="s">
         <v>189</v>
       </c>
@@ -10130,7 +14062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="33.75">
+    <row r="181" spans="1:11">
       <c r="A181" s="3" t="s">
         <v>190</v>
       </c>
@@ -10165,7 +14097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="33.75">
+    <row r="182" spans="1:11">
       <c r="A182" s="3" t="s">
         <v>191</v>
       </c>
@@ -10200,7 +14132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="33.75">
+    <row r="183" spans="1:11">
       <c r="A183" s="3" t="s">
         <v>192</v>
       </c>
@@ -10235,7 +14167,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="33.75">
+    <row r="184" spans="1:11">
       <c r="A184" s="3" t="s">
         <v>193</v>
       </c>
@@ -10270,7 +14202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="33.75">
+    <row r="185" spans="1:11">
       <c r="A185" s="3" t="s">
         <v>194</v>
       </c>
@@ -10305,7 +14237,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="33.75">
+    <row r="186" spans="1:11">
       <c r="A186" s="3" t="s">
         <v>195</v>
       </c>
@@ -10340,7 +14272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="33.75">
+    <row r="187" spans="1:11">
       <c r="A187" s="3" t="s">
         <v>196</v>
       </c>
@@ -10375,7 +14307,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="33.75">
+    <row r="188" spans="1:11">
       <c r="A188" s="3" t="s">
         <v>197</v>
       </c>
@@ -10410,7 +14342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="33.75">
+    <row r="189" spans="1:11">
       <c r="A189" s="3" t="s">
         <v>198</v>
       </c>
@@ -10445,7 +14377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="33.75">
+    <row r="190" spans="1:11">
       <c r="A190" s="3" t="s">
         <v>199</v>
       </c>
@@ -10480,7 +14412,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="33.75">
+    <row r="191" spans="1:11">
       <c r="A191" s="3" t="s">
         <v>200</v>
       </c>
@@ -10515,7 +14447,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="33.75">
+    <row r="192" spans="1:11">
       <c r="A192" s="3" t="s">
         <v>201</v>
       </c>
@@ -10550,7 +14482,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="33.75">
+    <row r="193" spans="1:11">
       <c r="A193" s="3" t="s">
         <v>202</v>
       </c>
@@ -10585,7 +14517,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="33.75">
+    <row r="194" spans="1:11">
       <c r="A194" s="3" t="s">
         <v>203</v>
       </c>
@@ -10620,7 +14552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="33.75">
+    <row r="195" spans="1:11">
       <c r="A195" s="3" t="s">
         <v>204</v>
       </c>
@@ -10655,7 +14587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="33.75">
+    <row r="196" spans="1:11">
       <c r="A196" s="3" t="s">
         <v>205</v>
       </c>
@@ -10690,7 +14622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="33.75">
+    <row r="197" spans="1:11">
       <c r="A197" s="3" t="s">
         <v>206</v>
       </c>
@@ -10725,7 +14657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="33.75">
+    <row r="198" spans="1:11">
       <c r="A198" s="3" t="s">
         <v>207</v>
       </c>
@@ -10760,7 +14692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="33.75">
+    <row r="199" spans="1:11">
       <c r="A199" s="3" t="s">
         <v>208</v>
       </c>
@@ -10795,7 +14727,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="33.75">
+    <row r="200" spans="1:11">
       <c r="A200" s="3" t="s">
         <v>209</v>
       </c>
@@ -10830,7 +14762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="33.75">
+    <row r="201" spans="1:11">
       <c r="A201" s="3" t="s">
         <v>210</v>
       </c>
@@ -10865,7 +14797,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="33.75">
+    <row r="202" spans="1:11">
       <c r="A202" s="3" t="s">
         <v>211</v>
       </c>
@@ -10900,7 +14832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="33.75">
+    <row r="203" spans="1:11">
       <c r="A203" s="3" t="s">
         <v>212</v>
       </c>
@@ -10935,7 +14867,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="33.75">
+    <row r="204" spans="1:11">
       <c r="A204" s="3" t="s">
         <v>213</v>
       </c>
@@ -10970,7 +14902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="33.75">
+    <row r="205" spans="1:11">
       <c r="A205" s="3" t="s">
         <v>214</v>
       </c>
@@ -11005,7 +14937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="33.75">
+    <row r="206" spans="1:11">
       <c r="A206" s="3" t="s">
         <v>215</v>
       </c>
@@ -11040,7 +14972,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="33.75">
+    <row r="207" spans="1:11">
       <c r="A207" s="3" t="s">
         <v>216</v>
       </c>
@@ -11075,7 +15007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="33.75">
+    <row r="208" spans="1:11">
       <c r="A208" s="3" t="s">
         <v>217</v>
       </c>
@@ -11110,7 +15042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="33.75">
+    <row r="209" spans="1:11">
       <c r="A209" s="3" t="s">
         <v>218</v>
       </c>
@@ -11145,7 +15077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="33.75">
+    <row r="210" spans="1:11">
       <c r="A210" s="3" t="s">
         <v>219</v>
       </c>
@@ -11180,7 +15112,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="33.75">
+    <row r="211" spans="1:11">
       <c r="A211" s="3" t="s">
         <v>220</v>
       </c>
@@ -11215,7 +15147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="33.75">
+    <row r="212" spans="1:11">
       <c r="A212" s="3" t="s">
         <v>221</v>
       </c>
@@ -11250,7 +15182,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="33.75">
+    <row r="213" spans="1:11">
       <c r="A213" s="3" t="s">
         <v>222</v>
       </c>
@@ -11285,7 +15217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="33.75">
+    <row r="214" spans="1:11">
       <c r="A214" s="3" t="s">
         <v>223</v>
       </c>
@@ -11320,7 +15252,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="33.75">
+    <row r="215" spans="1:11">
       <c r="A215" s="3" t="s">
         <v>224</v>
       </c>
@@ -11355,7 +15287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="33.75">
+    <row r="216" spans="1:11">
       <c r="A216" s="5" t="s">
         <v>225</v>
       </c>
@@ -11390,7 +15322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="33.75">
+    <row r="217" spans="1:11">
       <c r="A217" s="3" t="s">
         <v>226</v>
       </c>
@@ -11425,7 +15357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="33.75">
+    <row r="218" spans="1:11">
       <c r="A218" s="3" t="s">
         <v>227</v>
       </c>
@@ -11460,7 +15392,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="33.75">
+    <row r="219" spans="1:11">
       <c r="A219" s="3" t="s">
         <v>228</v>
       </c>
@@ -11495,7 +15427,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="33.75">
+    <row r="220" spans="1:11">
       <c r="A220" s="3" t="s">
         <v>229</v>
       </c>
@@ -11530,7 +15462,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="33.75">
+    <row r="221" spans="1:11">
       <c r="A221" s="3" t="s">
         <v>230</v>
       </c>
@@ -11565,7 +15497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="33.75">
+    <row r="222" spans="1:11">
       <c r="A222" s="3" t="s">
         <v>231</v>
       </c>
@@ -11600,7 +15532,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="33.75">
+    <row r="223" spans="1:11">
       <c r="A223" s="3" t="s">
         <v>232</v>
       </c>
@@ -11635,7 +15567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="33.75">
+    <row r="224" spans="1:11">
       <c r="A224" s="3" t="s">
         <v>233</v>
       </c>
@@ -11670,7 +15602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="33.75">
+    <row r="225" spans="1:11">
       <c r="A225" s="3" t="s">
         <v>234</v>
       </c>
@@ -11705,7 +15637,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="33.75">
+    <row r="226" spans="1:11">
       <c r="A226" s="3" t="s">
         <v>235</v>
       </c>
@@ -11740,7 +15672,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="33.75">
+    <row r="227" spans="1:11">
       <c r="A227" s="3" t="s">
         <v>236</v>
       </c>
@@ -11775,7 +15707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="33.75">
+    <row r="228" spans="1:11">
       <c r="A228" s="3" t="s">
         <v>237</v>
       </c>
@@ -11810,7 +15742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="33.75">
+    <row r="229" spans="1:11">
       <c r="A229" s="3" t="s">
         <v>238</v>
       </c>
@@ -11845,7 +15777,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="33.75">
+    <row r="230" spans="1:11">
       <c r="A230" s="3" t="s">
         <v>239</v>
       </c>
@@ -11880,7 +15812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="33.75">
+    <row r="231" spans="1:11">
       <c r="A231" s="3" t="s">
         <v>240</v>
       </c>
@@ -11915,7 +15847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="33.75">
+    <row r="232" spans="1:11">
       <c r="A232" s="5" t="s">
         <v>241</v>
       </c>
@@ -11950,7 +15882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="33.75">
+    <row r="233" spans="1:11">
       <c r="A233" s="3" t="s">
         <v>242</v>
       </c>
@@ -11985,7 +15917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="33.75">
+    <row r="234" spans="1:11">
       <c r="A234" s="3" t="s">
         <v>243</v>
       </c>
@@ -12020,7 +15952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="33.75">
+    <row r="235" spans="1:11">
       <c r="A235" s="3" t="s">
         <v>244</v>
       </c>
@@ -12055,7 +15987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="33.75">
+    <row r="236" spans="1:11">
       <c r="A236" s="3" t="s">
         <v>245</v>
       </c>
@@ -12090,7 +16022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="33.75">
+    <row r="237" spans="1:11">
       <c r="A237" s="3" t="s">
         <v>246</v>
       </c>
@@ -12125,7 +16057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="33.75">
+    <row r="238" spans="1:11">
       <c r="A238" s="3" t="s">
         <v>247</v>
       </c>
@@ -12160,7 +16092,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="33.75">
+    <row r="239" spans="1:11">
       <c r="A239" s="3" t="s">
         <v>248</v>
       </c>
@@ -12195,7 +16127,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="33.75">
+    <row r="240" spans="1:11">
       <c r="A240" s="3" t="s">
         <v>249</v>
       </c>
@@ -12230,7 +16162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="33.75">
+    <row r="241" spans="1:11">
       <c r="A241" s="3" t="s">
         <v>250</v>
       </c>
@@ -12265,7 +16197,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="33.75">
+    <row r="242" spans="1:11">
       <c r="A242" s="3" t="s">
         <v>251</v>
       </c>
@@ -12300,7 +16232,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="33.75">
+    <row r="243" spans="1:11">
       <c r="A243" s="3" t="s">
         <v>252</v>
       </c>
@@ -12335,7 +16267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="33.75">
+    <row r="244" spans="1:11">
       <c r="A244" s="3" t="s">
         <v>253</v>
       </c>
@@ -12370,7 +16302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="33.75">
+    <row r="245" spans="1:11">
       <c r="A245" s="3" t="s">
         <v>254</v>
       </c>
@@ -12405,7 +16337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="33.75">
+    <row r="246" spans="1:11">
       <c r="A246" s="3" t="s">
         <v>255</v>
       </c>
@@ -12440,7 +16372,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="33.75">
+    <row r="247" spans="1:11">
       <c r="A247" s="3" t="s">
         <v>256</v>
       </c>
@@ -12475,7 +16407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="33.75">
+    <row r="248" spans="1:11">
       <c r="A248" s="3" t="s">
         <v>257</v>
       </c>
@@ -12510,7 +16442,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="33.75">
+    <row r="249" spans="1:11">
       <c r="A249" s="3" t="s">
         <v>258</v>
       </c>
@@ -12545,7 +16477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="33.75">
+    <row r="250" spans="1:11">
       <c r="A250" s="3" t="s">
         <v>259</v>
       </c>
@@ -12580,7 +16512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="33.75">
+    <row r="251" spans="1:11">
       <c r="A251" s="3" t="s">
         <v>260</v>
       </c>
@@ -12615,7 +16547,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="33.75">
+    <row r="252" spans="1:11">
       <c r="A252" s="3" t="s">
         <v>261</v>
       </c>
@@ -12650,7 +16582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="33.75">
+    <row r="253" spans="1:11">
       <c r="A253" s="3" t="s">
         <v>262</v>
       </c>
@@ -12685,7 +16617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="33.75">
+    <row r="254" spans="1:11">
       <c r="A254" s="3" t="s">
         <v>263</v>
       </c>
@@ -12720,7 +16652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="33.75">
+    <row r="255" spans="1:11">
       <c r="A255" s="3" t="s">
         <v>264</v>
       </c>
@@ -12755,7 +16687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="33.75">
+    <row r="256" spans="1:11">
       <c r="A256" s="3" t="s">
         <v>265</v>
       </c>
@@ -12790,7 +16722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="33.75">
+    <row r="257" spans="1:11">
       <c r="A257" s="3" t="s">
         <v>266</v>
       </c>
@@ -12825,7 +16757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="33.75">
+    <row r="258" spans="1:11">
       <c r="A258" s="3" t="s">
         <v>267</v>
       </c>
@@ -12860,7 +16792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="33.75">
+    <row r="259" spans="1:11">
       <c r="A259" s="3" t="s">
         <v>268</v>
       </c>
@@ -12895,7 +16827,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="33.75">
+    <row r="260" spans="1:11">
       <c r="A260" s="3" t="s">
         <v>269</v>
       </c>
@@ -12930,7 +16862,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="33.75">
+    <row r="261" spans="1:11">
       <c r="A261" s="3" t="s">
         <v>270</v>
       </c>
@@ -12965,7 +16897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="33.75">
+    <row r="262" spans="1:11">
       <c r="A262" s="3" t="s">
         <v>271</v>
       </c>
@@ -13000,7 +16932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="33.75">
+    <row r="263" spans="1:11">
       <c r="A263" s="3" t="s">
         <v>272</v>
       </c>
@@ -13035,7 +16967,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="33.75">
+    <row r="264" spans="1:11">
       <c r="A264" s="3" t="s">
         <v>273</v>
       </c>
@@ -13070,7 +17002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="33.75">
+    <row r="265" spans="1:11">
       <c r="A265" s="3" t="s">
         <v>274</v>
       </c>
@@ -13105,7 +17037,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="33.75">
+    <row r="266" spans="1:11">
       <c r="A266" s="3" t="s">
         <v>275</v>
       </c>
@@ -13140,7 +17072,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="33.75">
+    <row r="267" spans="1:11">
       <c r="A267" s="3" t="s">
         <v>276</v>
       </c>
@@ -13175,7 +17107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="33.75">
+    <row r="268" spans="1:11">
       <c r="A268" s="3" t="s">
         <v>277</v>
       </c>
@@ -13210,7 +17142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="33.75">
+    <row r="269" spans="1:11">
       <c r="A269" s="3" t="s">
         <v>278</v>
       </c>
@@ -13245,7 +17177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="33.75">
+    <row r="270" spans="1:11">
       <c r="A270" s="3" t="s">
         <v>279</v>
       </c>
@@ -13280,7 +17212,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="33.75">
+    <row r="271" spans="1:11">
       <c r="A271" s="5" t="s">
         <v>280</v>
       </c>
@@ -13315,7 +17247,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="33.75">
+    <row r="272" spans="1:11">
       <c r="A272" s="3" t="s">
         <v>281</v>
       </c>
@@ -13350,7 +17282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="33.75">
+    <row r="273" spans="1:11">
       <c r="A273" s="3" t="s">
         <v>282</v>
       </c>
@@ -13385,7 +17317,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="33.75">
+    <row r="274" spans="1:11">
       <c r="A274" s="3" t="s">
         <v>283</v>
       </c>
@@ -13420,7 +17352,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="33.75">
+    <row r="275" spans="1:11">
       <c r="A275" s="3" t="s">
         <v>284</v>
       </c>
@@ -13455,7 +17387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="33.75">
+    <row r="276" spans="1:11">
       <c r="A276" s="3" t="s">
         <v>285</v>
       </c>
@@ -13490,7 +17422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="33.75">
+    <row r="277" spans="1:11">
       <c r="A277" s="3" t="s">
         <v>286</v>
       </c>
@@ -13525,7 +17457,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="33.75">
+    <row r="278" spans="1:11">
       <c r="A278" s="3" t="s">
         <v>287</v>
       </c>
@@ -13560,7 +17492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="33.75">
+    <row r="279" spans="1:11">
       <c r="A279" s="3" t="s">
         <v>288</v>
       </c>
@@ -13595,7 +17527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="33.75">
+    <row r="280" spans="1:11">
       <c r="A280" s="3" t="s">
         <v>289</v>
       </c>
@@ -13630,7 +17562,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="33.75">
+    <row r="281" spans="1:11">
       <c r="A281" s="3" t="s">
         <v>290</v>
       </c>
@@ -13665,7 +17597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="33.75">
+    <row r="282" spans="1:11">
       <c r="A282" s="3" t="s">
         <v>291</v>
       </c>
@@ -13700,7 +17632,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="33.75">
+    <row r="283" spans="1:11">
       <c r="A283" s="3" t="s">
         <v>292</v>
       </c>
@@ -13735,7 +17667,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="33.75">
+    <row r="284" spans="1:11">
       <c r="A284" s="3" t="s">
         <v>293</v>
       </c>
@@ -13770,7 +17702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="33.75">
+    <row r="285" spans="1:11">
       <c r="A285" s="3" t="s">
         <v>294</v>
       </c>
@@ -13805,7 +17737,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="33.75">
+    <row r="286" spans="1:11">
       <c r="A286" s="3" t="s">
         <v>295</v>
       </c>
@@ -13840,7 +17772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="33.75">
+    <row r="287" spans="1:11">
       <c r="A287" s="3" t="s">
         <v>296</v>
       </c>
@@ -13875,7 +17807,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="33.75">
+    <row r="288" spans="1:11">
       <c r="A288" s="3" t="s">
         <v>297</v>
       </c>
@@ -13910,7 +17842,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="33.75">
+    <row r="289" spans="1:11">
       <c r="A289" s="3" t="s">
         <v>298</v>
       </c>
@@ -13945,7 +17877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="33.75">
+    <row r="290" spans="1:11">
       <c r="A290" s="3" t="s">
         <v>299</v>
       </c>
@@ -13980,7 +17912,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="33.75">
+    <row r="291" spans="1:11">
       <c r="A291" s="3" t="s">
         <v>300</v>
       </c>
@@ -14015,7 +17947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="33.75">
+    <row r="292" spans="1:11">
       <c r="A292" s="5" t="s">
         <v>301</v>
       </c>
@@ -14050,7 +17982,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="33.75">
+    <row r="293" spans="1:11">
       <c r="A293" s="3" t="s">
         <v>302</v>
       </c>
@@ -14085,7 +18017,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="33.75">
+    <row r="294" spans="1:11">
       <c r="A294" s="3" t="s">
         <v>303</v>
       </c>
@@ -14120,7 +18052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="33.75">
+    <row r="295" spans="1:11">
       <c r="A295" s="3" t="s">
         <v>304</v>
       </c>
@@ -14155,7 +18087,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="33.75">
+    <row r="296" spans="1:11">
       <c r="A296" s="3" t="s">
         <v>305</v>
       </c>
@@ -14190,7 +18122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="33.75">
+    <row r="297" spans="1:11">
       <c r="A297" s="3" t="s">
         <v>306</v>
       </c>
@@ -14225,7 +18157,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="33.75">
+    <row r="298" spans="1:11">
       <c r="A298" s="3" t="s">
         <v>307</v>
       </c>
@@ -14260,7 +18192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="33.75">
+    <row r="299" spans="1:11">
       <c r="A299" s="3" t="s">
         <v>308</v>
       </c>
@@ -14295,7 +18227,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="33.75">
+    <row r="300" spans="1:11">
       <c r="A300" s="3" t="s">
         <v>309</v>
       </c>
@@ -14330,7 +18262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="33.75">
+    <row r="301" spans="1:11">
       <c r="A301" s="3" t="s">
         <v>310</v>
       </c>
@@ -14365,7 +18297,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="33.75">
+    <row r="302" spans="1:11">
       <c r="A302" s="3" t="s">
         <v>311</v>
       </c>
@@ -14400,7 +18332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="33.75">
+    <row r="303" spans="1:11">
       <c r="A303" s="3" t="s">
         <v>312</v>
       </c>
@@ -14435,7 +18367,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="33.75">
+    <row r="304" spans="1:11">
       <c r="A304" s="3" t="s">
         <v>313</v>
       </c>
@@ -14470,7 +18402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="33.75">
+    <row r="305" spans="1:11">
       <c r="A305" s="3" t="s">
         <v>314</v>
       </c>
@@ -14505,7 +18437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="33.75">
+    <row r="306" spans="1:11">
       <c r="A306" s="3" t="s">
         <v>315</v>
       </c>
@@ -14540,7 +18472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="33.75">
+    <row r="307" spans="1:11">
       <c r="A307" s="3" t="s">
         <v>316</v>
       </c>
@@ -14575,7 +18507,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="33.75">
+    <row r="308" spans="1:11">
       <c r="A308" s="3" t="s">
         <v>317</v>
       </c>
@@ -14610,7 +18542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="33.75">
+    <row r="309" spans="1:11">
       <c r="A309" s="3" t="s">
         <v>318</v>
       </c>
@@ -14645,7 +18577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="33.75">
+    <row r="310" spans="1:11">
       <c r="A310" s="3" t="s">
         <v>319</v>
       </c>
@@ -14680,7 +18612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="33.75">
+    <row r="311" spans="1:11">
       <c r="A311" s="3" t="s">
         <v>320</v>
       </c>
@@ -14715,7 +18647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="33.75">
+    <row r="312" spans="1:11">
       <c r="A312" s="3" t="s">
         <v>321</v>
       </c>
@@ -14750,7 +18682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="33.75">
+    <row r="313" spans="1:11">
       <c r="A313" s="3" t="s">
         <v>322</v>
       </c>
@@ -14785,7 +18717,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="33.75">
+    <row r="314" spans="1:11">
       <c r="A314" s="3" t="s">
         <v>323</v>
       </c>
@@ -14820,7 +18752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="33.75">
+    <row r="315" spans="1:11">
       <c r="A315" s="3" t="s">
         <v>324</v>
       </c>
@@ -14855,7 +18787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="33.75">
+    <row r="316" spans="1:11">
       <c r="A316" s="3" t="s">
         <v>325</v>
       </c>
@@ -14890,7 +18822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="33.75">
+    <row r="317" spans="1:11">
       <c r="A317" s="3" t="s">
         <v>326</v>
       </c>
@@ -14925,7 +18857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="33.75">
+    <row r="318" spans="1:11">
       <c r="A318" s="3" t="s">
         <v>327</v>
       </c>
@@ -14960,7 +18892,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="33.75">
+    <row r="319" spans="1:11">
       <c r="A319" s="3" t="s">
         <v>328</v>
       </c>
@@ -14995,7 +18927,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="33.75">
+    <row r="320" spans="1:11">
       <c r="A320" s="3" t="s">
         <v>329</v>
       </c>
@@ -15030,7 +18962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="33.75">
+    <row r="321" spans="1:11">
       <c r="A321" s="3" t="s">
         <v>330</v>
       </c>
@@ -15065,7 +18997,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="33.75">
+    <row r="322" spans="1:11">
       <c r="A322" s="3" t="s">
         <v>331</v>
       </c>
@@ -15100,7 +19032,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="33.75">
+    <row r="323" spans="1:11">
       <c r="A323" s="3" t="s">
         <v>332</v>
       </c>
@@ -15135,7 +19067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="33.75">
+    <row r="324" spans="1:11">
       <c r="A324" s="3" t="s">
         <v>333</v>
       </c>
@@ -15170,7 +19102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="33.75">
+    <row r="325" spans="1:11">
       <c r="A325" s="3" t="s">
         <v>334</v>
       </c>
@@ -15205,7 +19137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="33.75">
+    <row r="326" spans="1:11">
       <c r="A326" s="3" t="s">
         <v>335</v>
       </c>
@@ -15240,7 +19172,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="33.75">
+    <row r="327" spans="1:11">
       <c r="A327" s="3" t="s">
         <v>336</v>
       </c>
@@ -15275,7 +19207,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="33.75">
+    <row r="328" spans="1:11">
       <c r="A328" s="3" t="s">
         <v>337</v>
       </c>
@@ -15310,7 +19242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="33.75">
+    <row r="329" spans="1:11">
       <c r="A329" s="3" t="s">
         <v>338</v>
       </c>
@@ -15345,7 +19277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="33.75">
+    <row r="330" spans="1:11">
       <c r="A330" s="3" t="s">
         <v>339</v>
       </c>
@@ -15380,7 +19312,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="33.75">
+    <row r="331" spans="1:11">
       <c r="A331" s="3" t="s">
         <v>340</v>
       </c>
@@ -15415,7 +19347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="33.75">
+    <row r="332" spans="1:11">
       <c r="A332" s="3" t="s">
         <v>341</v>
       </c>
@@ -15450,7 +19382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="33.75">
+    <row r="333" spans="1:11">
       <c r="A333" s="3" t="s">
         <v>342</v>
       </c>
@@ -15485,7 +19417,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="33.75">
+    <row r="334" spans="1:11">
       <c r="A334" s="3" t="s">
         <v>343</v>
       </c>
@@ -15520,7 +19452,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="33.75">
+    <row r="335" spans="1:11">
       <c r="A335" s="3" t="s">
         <v>344</v>
       </c>
@@ -15555,7 +19487,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="33.75">
+    <row r="336" spans="1:11">
       <c r="A336" s="3" t="s">
         <v>345</v>
       </c>
@@ -15590,7 +19522,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="33.75">
+    <row r="337" spans="1:11">
       <c r="A337" s="3" t="s">
         <v>346</v>
       </c>
@@ -15625,7 +19557,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="33.75">
+    <row r="338" spans="1:11">
       <c r="A338" s="3" t="s">
         <v>347</v>
       </c>
@@ -15660,7 +19592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="33.75">
+    <row r="339" spans="1:11">
       <c r="A339" s="3" t="s">
         <v>348</v>
       </c>
@@ -15695,7 +19627,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="33.75">
+    <row r="340" spans="1:11">
       <c r="A340" s="5" t="s">
         <v>349</v>
       </c>
@@ -15730,7 +19662,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="33.75">
+    <row r="341" spans="1:11">
       <c r="A341" s="3" t="s">
         <v>350</v>
       </c>
@@ -15765,7 +19697,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="33.75">
+    <row r="342" spans="1:11">
       <c r="A342" s="3" t="s">
         <v>351</v>
       </c>
@@ -15800,7 +19732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="33.75">
+    <row r="343" spans="1:11">
       <c r="A343" s="3" t="s">
         <v>352</v>
       </c>
@@ -15835,7 +19767,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="33.75">
+    <row r="344" spans="1:11">
       <c r="A344" s="3" t="s">
         <v>353</v>
       </c>
@@ -15870,7 +19802,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="33.75">
+    <row r="345" spans="1:11">
       <c r="A345" s="3" t="s">
         <v>354</v>
       </c>
@@ -15905,7 +19837,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="33.75">
+    <row r="346" spans="1:11">
       <c r="A346" s="3" t="s">
         <v>355</v>
       </c>
@@ -15940,7 +19872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="33.75">
+    <row r="347" spans="1:11">
       <c r="A347" s="5" t="s">
         <v>356</v>
       </c>
@@ -15975,7 +19907,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="33.75">
+    <row r="348" spans="1:11">
       <c r="A348" s="3" t="s">
         <v>357</v>
       </c>
@@ -16010,7 +19942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="33.75">
+    <row r="349" spans="1:11">
       <c r="A349" s="3" t="s">
         <v>358</v>
       </c>
@@ -16045,7 +19977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="33.75">
+    <row r="350" spans="1:11">
       <c r="A350" s="3" t="s">
         <v>359</v>
       </c>
@@ -16080,7 +20012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="33.75">
+    <row r="351" spans="1:11">
       <c r="A351" s="3" t="s">
         <v>360</v>
       </c>
@@ -16115,7 +20047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="33.75">
+    <row r="352" spans="1:11">
       <c r="A352" s="3" t="s">
         <v>361</v>
       </c>
@@ -16150,7 +20082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="33.75">
+    <row r="353" spans="1:11">
       <c r="A353" s="3" t="s">
         <v>362</v>
       </c>
@@ -16185,7 +20117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="33.75">
+    <row r="354" spans="1:11">
       <c r="A354" s="3" t="s">
         <v>363</v>
       </c>
@@ -16220,7 +20152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="33.75">
+    <row r="355" spans="1:11">
       <c r="A355" s="3" t="s">
         <v>364</v>
       </c>
@@ -16255,7 +20187,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="33.75">
+    <row r="356" spans="1:11">
       <c r="A356" s="5" t="s">
         <v>365</v>
       </c>
@@ -16290,7 +20222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="33.75">
+    <row r="357" spans="1:11">
       <c r="A357" s="3" t="s">
         <v>366</v>
       </c>
@@ -16325,7 +20257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="33.75">
+    <row r="358" spans="1:11">
       <c r="A358" s="3" t="s">
         <v>367</v>
       </c>
@@ -16360,7 +20292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="33.75">
+    <row r="359" spans="1:11">
       <c r="A359" s="3" t="s">
         <v>368</v>
       </c>
@@ -16395,7 +20327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="33.75">
+    <row r="360" spans="1:11">
       <c r="A360" s="3" t="s">
         <v>369</v>
       </c>
@@ -16430,7 +20362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="33.75">
+    <row r="361" spans="1:11">
       <c r="A361" s="3" t="s">
         <v>370</v>
       </c>
@@ -16465,7 +20397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="33.75">
+    <row r="362" spans="1:11">
       <c r="A362" s="3" t="s">
         <v>371</v>
       </c>
@@ -16500,7 +20432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="33.75">
+    <row r="363" spans="1:11">
       <c r="A363" s="3" t="s">
         <v>372</v>
       </c>
@@ -16535,7 +20467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="33.75">
+    <row r="364" spans="1:11">
       <c r="A364" s="3" t="s">
         <v>373</v>
       </c>
@@ -16570,7 +20502,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="33.75">
+    <row r="365" spans="1:11">
       <c r="A365" s="3" t="s">
         <v>374</v>
       </c>
@@ -16605,7 +20537,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="33.75">
+    <row r="366" spans="1:11">
       <c r="A366" s="3" t="s">
         <v>375</v>
       </c>
@@ -16640,7 +20572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="33.75">
+    <row r="367" spans="1:11">
       <c r="A367" s="3" t="s">
         <v>376</v>
       </c>
@@ -16675,7 +20607,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="33.75">
+    <row r="368" spans="1:11">
       <c r="A368" s="3" t="s">
         <v>377</v>
       </c>
@@ -16710,7 +20642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="33.75">
+    <row r="369" spans="1:11">
       <c r="A369" s="3" t="s">
         <v>378</v>
       </c>
@@ -16745,7 +20677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="33.75">
+    <row r="370" spans="1:11">
       <c r="A370" s="3" t="s">
         <v>379</v>
       </c>
@@ -16780,7 +20712,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="33.75">
+    <row r="371" spans="1:11">
       <c r="A371" s="3" t="s">
         <v>380</v>
       </c>
@@ -16815,7 +20747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="33.75">
+    <row r="372" spans="1:11">
       <c r="A372" s="3" t="s">
         <v>381</v>
       </c>
@@ -16850,7 +20782,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="33.75">
+    <row r="373" spans="1:11">
       <c r="A373" s="3" t="s">
         <v>382</v>
       </c>
@@ -16885,7 +20817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="33.75">
+    <row r="374" spans="1:11">
       <c r="A374" s="3" t="s">
         <v>383</v>
       </c>
@@ -16920,7 +20852,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="33.75">
+    <row r="375" spans="1:11">
       <c r="A375" s="3" t="s">
         <v>384</v>
       </c>
@@ -16955,7 +20887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="33.75">
+    <row r="376" spans="1:11">
       <c r="A376" s="5" t="s">
         <v>385</v>
       </c>
@@ -16990,7 +20922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="33.75">
+    <row r="377" spans="1:11">
       <c r="A377" s="3" t="s">
         <v>386</v>
       </c>
@@ -17025,7 +20957,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="33.75">
+    <row r="378" spans="1:11">
       <c r="A378" s="3" t="s">
         <v>387</v>
       </c>
@@ -17060,7 +20992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="33.75">
+    <row r="379" spans="1:11">
       <c r="A379" s="3" t="s">
         <v>388</v>
       </c>
@@ -17095,7 +21027,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="33.75">
+    <row r="380" spans="1:11">
       <c r="A380" s="5" t="s">
         <v>389</v>
       </c>
@@ -17130,7 +21062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="33.75">
+    <row r="381" spans="1:11">
       <c r="A381" s="3" t="s">
         <v>390</v>
       </c>
@@ -17165,7 +21097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="33.75">
+    <row r="382" spans="1:11">
       <c r="A382" s="3" t="s">
         <v>391</v>
       </c>
@@ -17200,7 +21132,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="33.75">
+    <row r="383" spans="1:11">
       <c r="A383" s="3" t="s">
         <v>392</v>
       </c>
@@ -17235,7 +21167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="33.75">
+    <row r="384" spans="1:11">
       <c r="A384" s="3" t="s">
         <v>393</v>
       </c>
@@ -17270,7 +21202,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="33.75">
+    <row r="385" spans="1:11">
       <c r="A385" s="3" t="s">
         <v>394</v>
       </c>
@@ -17305,7 +21237,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="33.75">
+    <row r="386" spans="1:11">
       <c r="A386" s="3" t="s">
         <v>395</v>
       </c>
@@ -17340,7 +21272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="33.75">
+    <row r="387" spans="1:11">
       <c r="A387" s="3" t="s">
         <v>396</v>
       </c>
@@ -17375,7 +21307,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="33.75">
+    <row r="388" spans="1:11">
       <c r="A388" s="3" t="s">
         <v>397</v>
       </c>
@@ -17410,7 +21342,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="33.75">
+    <row r="389" spans="1:11">
       <c r="A389" s="3" t="s">
         <v>398</v>
       </c>
@@ -17445,7 +21377,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="33.75">
+    <row r="390" spans="1:11">
       <c r="A390" s="3" t="s">
         <v>399</v>
       </c>
@@ -17480,7 +21412,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="33.75">
+    <row r="391" spans="1:11">
       <c r="A391" s="3" t="s">
         <v>400</v>
       </c>
@@ -17515,7 +21447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="33.75">
+    <row r="392" spans="1:11">
       <c r="A392" s="3" t="s">
         <v>401</v>
       </c>
@@ -17550,7 +21482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="33.75">
+    <row r="393" spans="1:11">
       <c r="A393" s="3" t="s">
         <v>402</v>
       </c>
@@ -17585,7 +21517,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="33.75">
+    <row r="394" spans="1:11">
       <c r="A394" s="3" t="s">
         <v>403</v>
       </c>
@@ -17620,7 +21552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="33.75">
+    <row r="395" spans="1:11">
       <c r="A395" s="3" t="s">
         <v>404</v>
       </c>
@@ -17655,7 +21587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="33.75">
+    <row r="396" spans="1:11">
       <c r="A396" s="3" t="s">
         <v>405</v>
       </c>
@@ -17690,7 +21622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="33.75">
+    <row r="397" spans="1:11">
       <c r="A397" s="3" t="s">
         <v>406</v>
       </c>
@@ -17725,7 +21657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="33.75">
+    <row r="398" spans="1:11">
       <c r="A398" s="3" t="s">
         <v>407</v>
       </c>
@@ -17760,7 +21692,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="33.75">
+    <row r="399" spans="1:11">
       <c r="A399" s="3" t="s">
         <v>408</v>
       </c>
@@ -17795,7 +21727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="33.75">
+    <row r="400" spans="1:11">
       <c r="A400" s="3" t="s">
         <v>409</v>
       </c>
@@ -17830,7 +21762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="33.75">
+    <row r="401" spans="1:11">
       <c r="A401" s="3" t="s">
         <v>410</v>
       </c>
@@ -17865,7 +21797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="33.75">
+    <row r="402" spans="1:11">
       <c r="A402" s="3" t="s">
         <v>411</v>
       </c>
@@ -17900,7 +21832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="33.75">
+    <row r="403" spans="1:11">
       <c r="A403" s="3" t="s">
         <v>412</v>
       </c>
@@ -17935,7 +21867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="33.75">
+    <row r="404" spans="1:11">
       <c r="A404" s="3" t="s">
         <v>413</v>
       </c>
@@ -17970,7 +21902,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="33.75">
+    <row r="405" spans="1:11">
       <c r="A405" s="3" t="s">
         <v>414</v>
       </c>
@@ -18005,7 +21937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="33.75">
+    <row r="406" spans="1:11">
       <c r="A406" s="3" t="s">
         <v>415</v>
       </c>
@@ -18040,7 +21972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="33.75">
+    <row r="407" spans="1:11">
       <c r="A407" s="3" t="s">
         <v>416</v>
       </c>
@@ -18075,7 +22007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="33.75">
+    <row r="408" spans="1:11">
       <c r="A408" s="3" t="s">
         <v>417</v>
       </c>
@@ -18110,7 +22042,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="33.75">
+    <row r="409" spans="1:11">
       <c r="A409" s="3" t="s">
         <v>418</v>
       </c>
@@ -18145,7 +22077,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="33.75">
+    <row r="410" spans="1:11">
       <c r="A410" s="3" t="s">
         <v>419</v>
       </c>
@@ -18180,7 +22112,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="33.75">
+    <row r="411" spans="1:11">
       <c r="A411" s="3" t="s">
         <v>420</v>
       </c>
@@ -18215,7 +22147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="33.75">
+    <row r="412" spans="1:11">
       <c r="A412" s="3" t="s">
         <v>421</v>
       </c>
@@ -18250,7 +22182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="33.75">
+    <row r="413" spans="1:11">
       <c r="A413" s="3" t="s">
         <v>422</v>
       </c>
@@ -18285,7 +22217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="33.75">
+    <row r="414" spans="1:11">
       <c r="A414" s="3" t="s">
         <v>423</v>
       </c>
@@ -18320,7 +22252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="33.75">
+    <row r="415" spans="1:11">
       <c r="A415" s="3" t="s">
         <v>424</v>
       </c>
@@ -18355,7 +22287,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="33.75">
+    <row r="416" spans="1:11">
       <c r="A416" s="3" t="s">
         <v>425</v>
       </c>
@@ -18390,7 +22322,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="33.75">
+    <row r="417" spans="1:11">
       <c r="A417" s="3" t="s">
         <v>426</v>
       </c>
@@ -18425,7 +22357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="33.75">
+    <row r="418" spans="1:11">
       <c r="A418" s="3" t="s">
         <v>427</v>
       </c>
@@ -18460,7 +22392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="33.75">
+    <row r="419" spans="1:11">
       <c r="A419" s="3" t="s">
         <v>428</v>
       </c>
@@ -18495,7 +22427,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="33.75">
+    <row r="420" spans="1:11">
       <c r="A420" s="3" t="s">
         <v>429</v>
       </c>
@@ -18530,7 +22462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="33.75">
+    <row r="421" spans="1:11">
       <c r="A421" s="3" t="s">
         <v>430</v>
       </c>
@@ -18565,7 +22497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="33.75">
+    <row r="422" spans="1:11">
       <c r="A422" s="3" t="s">
         <v>431</v>
       </c>
@@ -18600,7 +22532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="33.75">
+    <row r="423" spans="1:11">
       <c r="A423" s="3" t="s">
         <v>432</v>
       </c>
@@ -18635,7 +22567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="33.75">
+    <row r="424" spans="1:11">
       <c r="A424" s="3" t="s">
         <v>433</v>
       </c>
@@ -18670,7 +22602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="33.75">
+    <row r="425" spans="1:11">
       <c r="A425" s="3" t="s">
         <v>434</v>
       </c>
@@ -18705,7 +22637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="33.75">
+    <row r="426" spans="1:11">
       <c r="A426" s="3" t="s">
         <v>435</v>
       </c>
@@ -18740,7 +22672,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="33.75">
+    <row r="427" spans="1:11">
       <c r="A427" s="3" t="s">
         <v>436</v>
       </c>
@@ -18775,7 +22707,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="33.75">
+    <row r="428" spans="1:11">
       <c r="A428" s="3" t="s">
         <v>437</v>
       </c>
@@ -18810,7 +22742,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="33.75">
+    <row r="429" spans="1:11">
       <c r="A429" s="3" t="s">
         <v>438</v>
       </c>
@@ -18845,7 +22777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="33.75">
+    <row r="430" spans="1:11">
       <c r="A430" s="3" t="s">
         <v>439</v>
       </c>
@@ -18880,7 +22812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="33.75">
+    <row r="431" spans="1:11">
       <c r="A431" s="3" t="s">
         <v>440</v>
       </c>
@@ -18915,7 +22847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="33.75">
+    <row r="432" spans="1:11">
       <c r="A432" s="3" t="s">
         <v>441</v>
       </c>
@@ -18950,7 +22882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="33.75">
+    <row r="433" spans="1:11">
       <c r="A433" s="3" t="s">
         <v>442</v>
       </c>
@@ -18985,7 +22917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="33.75">
+    <row r="434" spans="1:11">
       <c r="A434" s="3" t="s">
         <v>443</v>
       </c>
@@ -19020,7 +22952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="33.75">
+    <row r="435" spans="1:11">
       <c r="A435" s="3" t="s">
         <v>444</v>
       </c>
@@ -19055,7 +22987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="33.75">
+    <row r="436" spans="1:11">
       <c r="A436" s="3" t="s">
         <v>445</v>
       </c>
@@ -19090,7 +23022,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="33.75">
+    <row r="437" spans="1:11">
       <c r="A437" s="3" t="s">
         <v>446</v>
       </c>
@@ -19125,7 +23057,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="33.75">
+    <row r="438" spans="1:11">
       <c r="A438" s="3" t="s">
         <v>447</v>
       </c>
@@ -19160,7 +23092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="33.75">
+    <row r="439" spans="1:11">
       <c r="A439" s="3" t="s">
         <v>448</v>
       </c>
@@ -19195,7 +23127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="33.75">
+    <row r="440" spans="1:11">
       <c r="A440" s="3" t="s">
         <v>449</v>
       </c>
@@ -19230,7 +23162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="33.75">
+    <row r="441" spans="1:11">
       <c r="A441" s="3" t="s">
         <v>450</v>
       </c>
@@ -19265,7 +23197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="33.75">
+    <row r="442" spans="1:11">
       <c r="A442" s="3" t="s">
         <v>451</v>
       </c>
@@ -19300,7 +23232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="33.75">
+    <row r="443" spans="1:11">
       <c r="A443" s="3" t="s">
         <v>452</v>
       </c>
@@ -19335,7 +23267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="33.75">
+    <row r="444" spans="1:11">
       <c r="A444" s="3" t="s">
         <v>453</v>
       </c>
@@ -19370,7 +23302,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="33.75">
+    <row r="445" spans="1:11">
       <c r="A445" s="3" t="s">
         <v>454</v>
       </c>
@@ -19405,7 +23337,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="33.75">
+    <row r="446" spans="1:11">
       <c r="A446" s="3" t="s">
         <v>455</v>
       </c>
@@ -19440,7 +23372,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="33.75">
+    <row r="447" spans="1:11">
       <c r="A447" s="3" t="s">
         <v>456</v>
       </c>
@@ -19475,7 +23407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="33.75">
+    <row r="448" spans="1:11">
       <c r="A448" s="3" t="s">
         <v>457</v>
       </c>
@@ -19510,7 +23442,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="33.75">
+    <row r="449" spans="1:11">
       <c r="A449" s="3" t="s">
         <v>458</v>
       </c>
@@ -19545,7 +23477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="33.75">
+    <row r="450" spans="1:11">
       <c r="A450" s="3" t="s">
         <v>459</v>
       </c>
@@ -19580,7 +23512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="33.75">
+    <row r="451" spans="1:11">
       <c r="A451" s="3" t="s">
         <v>460</v>
       </c>
@@ -19615,7 +23547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="33.75">
+    <row r="452" spans="1:11">
       <c r="A452" s="3" t="s">
         <v>461</v>
       </c>
@@ -19650,7 +23582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="33.75">
+    <row r="453" spans="1:11">
       <c r="A453" s="3" t="s">
         <v>462</v>
       </c>
@@ -19685,7 +23617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="33.75">
+    <row r="454" spans="1:11">
       <c r="A454" s="3" t="s">
         <v>463</v>
       </c>
@@ -19720,7 +23652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="33.75">
+    <row r="455" spans="1:11">
       <c r="A455" s="3" t="s">
         <v>464</v>
       </c>
@@ -19755,7 +23687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="33.75">
+    <row r="456" spans="1:11">
       <c r="A456" s="3" t="s">
         <v>465</v>
       </c>
@@ -19790,7 +23722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="33.75">
+    <row r="457" spans="1:11">
       <c r="A457" s="3" t="s">
         <v>466</v>
       </c>
@@ -19825,7 +23757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="33.75">
+    <row r="458" spans="1:11">
       <c r="A458" s="3" t="s">
         <v>467</v>
       </c>
@@ -19860,7 +23792,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="33.75">
+    <row r="459" spans="1:11">
       <c r="A459" s="3" t="s">
         <v>468</v>
       </c>
@@ -19895,7 +23827,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="33.75">
+    <row r="460" spans="1:11">
       <c r="A460" s="3" t="s">
         <v>469</v>
       </c>
@@ -19930,7 +23862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="33.75">
+    <row r="461" spans="1:11">
       <c r="A461" s="3" t="s">
         <v>470</v>
       </c>
@@ -19965,7 +23897,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="33.75">
+    <row r="462" spans="1:11">
       <c r="A462" s="3" t="s">
         <v>471</v>
       </c>
@@ -20000,7 +23932,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="33.75">
+    <row r="463" spans="1:11">
       <c r="A463" s="3" t="s">
         <v>472</v>
       </c>
@@ -20035,7 +23967,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="33.75">
+    <row r="464" spans="1:11">
       <c r="A464" s="3" t="s">
         <v>473</v>
       </c>
@@ -20070,7 +24002,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="33.75">
+    <row r="465" spans="1:11">
       <c r="A465" s="3" t="s">
         <v>474</v>
       </c>
@@ -20105,7 +24037,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="33.75">
+    <row r="466" spans="1:11">
       <c r="A466" s="5" t="s">
         <v>475</v>
       </c>
@@ -20140,7 +24072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="33.75">
+    <row r="467" spans="1:11">
       <c r="A467" s="3" t="s">
         <v>476</v>
       </c>
@@ -20175,7 +24107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="33.75">
+    <row r="468" spans="1:11">
       <c r="A468" s="5" t="s">
         <v>477</v>
       </c>
@@ -20210,7 +24142,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="33.75">
+    <row r="469" spans="1:11">
       <c r="A469" s="3" t="s">
         <v>478</v>
       </c>
@@ -20245,7 +24177,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="33.75">
+    <row r="470" spans="1:11">
       <c r="A470" s="3" t="s">
         <v>479</v>
       </c>
@@ -20280,7 +24212,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="33.75">
+    <row r="471" spans="1:11">
       <c r="A471" s="3" t="s">
         <v>480</v>
       </c>
@@ -20315,7 +24247,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="33.75">
+    <row r="472" spans="1:11">
       <c r="A472" s="3" t="s">
         <v>481</v>
       </c>
@@ -20350,7 +24282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="33.75">
+    <row r="473" spans="1:11">
       <c r="A473" s="3" t="s">
         <v>482</v>
       </c>
@@ -20385,7 +24317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="33.75">
+    <row r="474" spans="1:11">
       <c r="A474" s="3" t="s">
         <v>483</v>
       </c>
@@ -20420,7 +24352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="33.75">
+    <row r="475" spans="1:11">
       <c r="A475" s="3" t="s">
         <v>484</v>
       </c>
@@ -20455,7 +24387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="33.75">
+    <row r="476" spans="1:11">
       <c r="A476" s="3" t="s">
         <v>485</v>
       </c>
@@ -20490,7 +24422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="33.75">
+    <row r="477" spans="1:11">
       <c r="A477" s="3" t="s">
         <v>486</v>
       </c>
@@ -20525,7 +24457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="33.75">
+    <row r="478" spans="1:11">
       <c r="A478" s="3" t="s">
         <v>487</v>
       </c>
@@ -20560,7 +24492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="33.75">
+    <row r="479" spans="1:11">
       <c r="A479" s="3" t="s">
         <v>488</v>
       </c>
@@ -20595,7 +24527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="33.75">
+    <row r="480" spans="1:11">
       <c r="A480" s="3" t="s">
         <v>489</v>
       </c>
@@ -20630,7 +24562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="33.75">
+    <row r="481" spans="1:11">
       <c r="A481" s="3" t="s">
         <v>490</v>
       </c>
@@ -20665,7 +24597,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="33.75">
+    <row r="482" spans="1:11">
       <c r="A482" s="3" t="s">
         <v>491</v>
       </c>
@@ -20700,7 +24632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="33.75">
+    <row r="483" spans="1:11">
       <c r="A483" s="3" t="s">
         <v>492</v>
       </c>
@@ -20735,7 +24667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="33.75">
+    <row r="484" spans="1:11">
       <c r="A484" s="3" t="s">
         <v>493</v>
       </c>
@@ -20770,7 +24702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="33.75">
+    <row r="485" spans="1:11">
       <c r="A485" s="3" t="s">
         <v>494</v>
       </c>
@@ -20805,7 +24737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="33.75">
+    <row r="486" spans="1:11">
       <c r="A486" s="3" t="s">
         <v>495</v>
       </c>
@@ -20840,7 +24772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="33.75">
+    <row r="487" spans="1:11">
       <c r="A487" s="3" t="s">
         <v>496</v>
       </c>
@@ -20875,7 +24807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="33.75">
+    <row r="488" spans="1:11">
       <c r="A488" s="3" t="s">
         <v>497</v>
       </c>
@@ -20910,7 +24842,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="33.75">
+    <row r="489" spans="1:11">
       <c r="A489" s="3" t="s">
         <v>498</v>
       </c>
@@ -20945,7 +24877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="33.75">
+    <row r="490" spans="1:11">
       <c r="A490" s="3" t="s">
         <v>499</v>
       </c>
@@ -20980,7 +24912,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="33.75">
+    <row r="491" spans="1:11">
       <c r="A491" s="3" t="s">
         <v>500</v>
       </c>
@@ -21015,7 +24947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="33.75">
+    <row r="492" spans="1:11">
       <c r="A492" s="3" t="s">
         <v>501</v>
       </c>
@@ -21050,7 +24982,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="33.75">
+    <row r="493" spans="1:11">
       <c r="A493" s="3" t="s">
         <v>502</v>
       </c>
@@ -21085,7 +25017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="33.75">
+    <row r="494" spans="1:11">
       <c r="A494" s="3" t="s">
         <v>503</v>
       </c>
@@ -21120,7 +25052,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="33.75">
+    <row r="495" spans="1:11">
       <c r="A495" s="3" t="s">
         <v>504</v>
       </c>
@@ -21155,7 +25087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="33.75">
+    <row r="496" spans="1:11">
       <c r="A496" s="3" t="s">
         <v>505</v>
       </c>
@@ -21190,7 +25122,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="33.75">
+    <row r="497" spans="1:11">
       <c r="A497" s="3" t="s">
         <v>506</v>
       </c>
@@ -21225,7 +25157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="33.75">
+    <row r="498" spans="1:11">
       <c r="A498" s="3" t="s">
         <v>507</v>
       </c>
@@ -21260,7 +25192,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="33.75">
+    <row r="499" spans="1:11">
       <c r="A499" s="3" t="s">
         <v>508</v>
       </c>
@@ -21295,7 +25227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="33.75">
+    <row r="500" spans="1:11">
       <c r="A500" s="3" t="s">
         <v>509</v>
       </c>
@@ -21330,7 +25262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="33.75">
+    <row r="501" spans="1:11">
       <c r="A501" s="3" t="s">
         <v>510</v>
       </c>
@@ -21367,5 +25299,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>